--- a/KELOMPOK MI 2018.xlsx
+++ b/KELOMPOK MI 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FASTIKOM\KULIAH\PEMROGRAMAN WEB FRAMEWORK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WWW\aplikasi_perwalian_online\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -119,9 +119,6 @@
     <t>LIHAT HISTORI NILAI</t>
   </si>
   <si>
-    <t>PROFIL USER</t>
-  </si>
-  <si>
     <t>IKA NADA WENY</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>DEWI FAIQOTUL MAKRUFAH</t>
+  </si>
+  <si>
+    <t>PROFIL USER &amp; MENU</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -607,10 +607,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -629,10 +629,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>5</v>
@@ -651,7 +651,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -662,7 +662,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -673,10 +673,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>8</v>
@@ -695,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>9</v>
@@ -706,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>10</v>
@@ -717,7 +717,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>11</v>
@@ -728,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -753,7 +753,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -764,10 +764,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -786,7 +786,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>18</v>
@@ -797,7 +797,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -805,15 +805,15 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>8</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>9</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>10</v>
@@ -840,7 +840,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -854,7 +854,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
@@ -865,7 +865,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
         <v>23</v>
@@ -876,7 +876,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
         <v>24</v>
@@ -887,7 +887,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
         <v>25</v>
@@ -898,7 +898,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -912,7 +912,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
         <v>28</v>
@@ -923,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
         <v>29</v>
@@ -934,7 +934,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>

--- a/KELOMPOK MI 2018.xlsx
+++ b/KELOMPOK MI 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WWW\aplikasi_perwalian_online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WWW\aplikasi-perwalian-online\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>NIM</t>
   </si>
@@ -35,9 +38,6 @@
     <t>ROLE</t>
   </si>
   <si>
-    <t>FITUR</t>
-  </si>
-  <si>
     <t>SEKRETARIAT JURUSAN</t>
   </si>
   <si>
@@ -119,70 +119,133 @@
     <t>LIHAT HISTORI NILAI</t>
   </si>
   <si>
-    <t>IKA NADA WENY</t>
-  </si>
-  <si>
-    <t>LAILATUL MAULIDAH</t>
-  </si>
-  <si>
-    <t>BARIK MAULANA</t>
-  </si>
-  <si>
-    <t>MEYTA NADYASARI</t>
-  </si>
-  <si>
-    <t>DIMAS AJI FIRMANSYAH</t>
-  </si>
-  <si>
-    <t>IBROHIM</t>
-  </si>
-  <si>
-    <t>SETA AJI HARI MUKTI</t>
-  </si>
-  <si>
     <t>ABSENSI KELAS</t>
   </si>
   <si>
-    <t>FERY ANDRIYANTO</t>
-  </si>
-  <si>
-    <t>YANTI</t>
-  </si>
-  <si>
     <t>MASTER KELAS</t>
   </si>
   <si>
     <t>MASTER KONVERSI NILAI</t>
   </si>
   <si>
-    <t>HENDRI PRASETYO</t>
-  </si>
-  <si>
-    <t>NADIA LAILATUL F</t>
-  </si>
-  <si>
-    <t>AHMAD MAEZUN</t>
-  </si>
-  <si>
-    <t>EVA KURNIAWATI</t>
-  </si>
-  <si>
-    <t>WIYAHMAN</t>
-  </si>
-  <si>
-    <t>FAIZ AMRILLAH</t>
-  </si>
-  <si>
-    <t>SITI MUBAROKAH</t>
-  </si>
-  <si>
-    <t>M ALIM KHAFIDZ</t>
-  </si>
-  <si>
-    <t>DEWI FAIQOTUL MAKRUFAH</t>
-  </si>
-  <si>
     <t>PROFIL USER &amp; MENU</t>
+  </si>
+  <si>
+    <t>TUGAS 1 (HTML)</t>
+  </si>
+  <si>
+    <t>TUGAS 2 (ROUTING)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ika Nada Weny Dwiyanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015160017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lailatul Maulidah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barik Maulana Rijal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meyta Nadyasari Nur Hidayanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dimas Aji Firmansyah Rizaldi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ibrohim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seta Aji Hari Mukti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fery Andriyanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hendri Prasetiyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nadia Lailatul Fitriyah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dewi Faiqotul Makrufah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ahmad Maezun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eva Kurniawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muhammad Alim Khafidz  Zundiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Siti Mubarokah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wiyahman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Faiz Amrillah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016160021</t>
+  </si>
+  <si>
+    <t>TUGAS 3 (MODEL)</t>
   </si>
 </sst>
 </file>
@@ -246,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,17 +318,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,401 +604,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E35"/>
+  <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="3" max="3" width="31.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
         <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
+      <c r="B17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>40</v>
+      <c r="B18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>26</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>18</v>
+      <c r="E21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
       </c>
       <c r="E22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>28</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>9</v>
+      <c r="E25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>10</v>
+      <c r="A26" s="1">
+        <v>31</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>22</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
+      <c r="B29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>25</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>26</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>27</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>51</v>
+        <v>9</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>28</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>29</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>30</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:F35">
+    <sortCondition ref="C3:C35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
